--- a/storage/laporan-rka2022.xlsx
+++ b/storage/laporan-rka2022.xlsx
@@ -565,7 +565,7 @@
         <v>4887807520</v>
       </c>
       <c r="D8">
-        <v>4342256513.0</v>
+        <v>4302256513.0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -587,7 +587,7 @@
         <v>3906195607</v>
       </c>
       <c r="D10">
-        <v>4342256513.0</v>
+        <v>4303500574.0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -674,7 +674,7 @@
         <v>3906195607</v>
       </c>
       <c r="D19">
-        <v>4342256513.0</v>
+        <v>4303500574.0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -700,7 +700,7 @@
         <v>3075060</v>
       </c>
       <c r="D23">
-        <v>0.0</v>
+        <v>4633256.0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -711,7 +711,7 @@
         <v>132847588</v>
       </c>
       <c r="D24">
-        <v>0.0</v>
+        <v>132847588.0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -738,7 +738,7 @@
         <v>135922648</v>
       </c>
       <c r="D27">
-        <v>0.0</v>
+        <v>137480844.0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -765,7 +765,7 @@
         <v>3770272958</v>
       </c>
       <c r="D30">
-        <v>15146068340.34</v>
+        <v>3826091620.3</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -776,7 +776,7 @@
         <v>3770272958</v>
       </c>
       <c r="D31">
-        <v>15146068340.34</v>
+        <v>3826091620.3</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -787,7 +787,7 @@
         <v>3906195606</v>
       </c>
       <c r="D32">
-        <v>15146068340.34</v>
+        <v>3963572464.3</v>
       </c>
     </row>
   </sheetData>

--- a/storage/laporan-rka2022.xlsx
+++ b/storage/laporan-rka2022.xlsx
@@ -29,7 +29,7 @@
     <t>DES 2021</t>
   </si>
   <si>
-    <t>Aug 2022</t>
+    <t>Sep 2022</t>
   </si>
   <si>
     <t>LIABILITAS DAN ASET NETO</t>
@@ -543,7 +543,7 @@
         <v>4687041</v>
       </c>
       <c r="D6">
-        <v>1244061.0</v>
+        <v>7198061.0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -554,7 +554,7 @@
         <v>322013489</v>
       </c>
       <c r="D7">
-        <v>0.0</v>
+        <v>670013184.0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -565,7 +565,7 @@
         <v>4887807520</v>
       </c>
       <c r="D8">
-        <v>4302256513.0</v>
+        <v>4692951888.0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -576,7 +576,7 @@
         <v>-1308312443</v>
       </c>
       <c r="D9">
-        <v>0.0</v>
+        <v>-1520457188.0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -587,7 +587,7 @@
         <v>3906195607</v>
       </c>
       <c r="D10">
-        <v>4303500574.0</v>
+        <v>3849705945.0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -641,7 +641,7 @@
         <v>4316437323</v>
       </c>
       <c r="D16">
-        <v>4306135769.0</v>
+        <v>4306137003.0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -652,7 +652,7 @@
         <v>-4316437323</v>
       </c>
       <c r="D17">
-        <v>-4306135769.0</v>
+        <v>-4306137003.0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -674,7 +674,7 @@
         <v>3906195607</v>
       </c>
       <c r="D19">
-        <v>4303500574.0</v>
+        <v>3849705945.0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -700,7 +700,7 @@
         <v>3075060</v>
       </c>
       <c r="D23">
-        <v>4633256.0</v>
+        <v>4527770.0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -738,7 +738,7 @@
         <v>135922648</v>
       </c>
       <c r="D27">
-        <v>137480844.0</v>
+        <v>137375358.0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -765,7 +765,7 @@
         <v>3770272958</v>
       </c>
       <c r="D30">
-        <v>3826091620.3</v>
+        <v>3712330587.44</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -776,7 +776,7 @@
         <v>3770272958</v>
       </c>
       <c r="D31">
-        <v>3826091620.3</v>
+        <v>3712330587.44</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -787,7 +787,7 @@
         <v>3906195606</v>
       </c>
       <c r="D32">
-        <v>3963572464.3</v>
+        <v>3849705945.44</v>
       </c>
     </row>
   </sheetData>
